--- a/medicine/Hématologie/Dacryocytose/Dacryocytose.xlsx
+++ b/medicine/Hématologie/Dacryocytose/Dacryocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dacryocytose (du grec « dakuron »: larme et « kutos »: cellule) désigne l'excès dans le sang de dacryocytes, c'est-à-dire d'hématies en forme de larmes ayant une extrémité arrondie et l'autre effilée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dacryocytose (du grec « dakuron »: larme et « kutos »: cellule) désigne l'excès dans le sang de dacryocytes, c'est-à-dire d'hématies en forme de larmes ayant une extrémité arrondie et l'autre effilée.
 La dacryocytose est établie lorsque le nombre de dacryocytes excède un élément par champ de microscope au moyen grossissement. 
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dacryocytose est observée lors des myélofibroses (splénomégalies myéloïdes chroniques, infiltrations néoplasiques de la moelle ou d'une autre origine), mais aussi lors des splénomégalies de toute origine ou des anémies sévères[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dacryocytose est observée lors des myélofibroses (splénomégalies myéloïdes chroniques, infiltrations néoplasiques de la moelle ou d'une autre origine), mais aussi lors des splénomégalies de toute origine ou des anémies sévères,.
 Chez les patients thalassémiques une dacryocytose résulte de l'extraction par la rate des inclusions formées par les précipités
-de chaînes de globine non appariées[3].
+de chaînes de globine non appariées.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Mécanisme de formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une déformation irréversible de l'hématie qui survient lors de sa sortie de la moelle victime de fibrose, ou encore d'origine splénique du fait d'un temps de passage allongé dans une rate de gros volume. La déformation en elliptocyte est une étape intermédiaire[1],[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une déformation irréversible de l'hématie qui survient lors de sa sortie de la moelle victime de fibrose, ou encore d'origine splénique du fait d'un temps de passage allongé dans une rate de gros volume. La déformation en elliptocyte est une étape intermédiaire,. 
 </t>
         </is>
       </c>
